--- a/file/Bottle_Location.xlsx
+++ b/file/Bottle_Location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.bank\Desktop\ICBA Irfan\Labellling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172B7A9F-CA1C-4E18-87F7-30CFFEF5185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA62E4-5A6B-43E0-BB93-0AFD0135F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80C78953-0EDA-4092-A06B-B094D142AC92}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>S.No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Sticker</t>
   </si>
@@ -889,448 +886,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9711C0D-600D-43E9-88FE-555B72157310}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>525</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
